--- a/AudienceHub2.0/src/main/java/resources/externalData/credsData.xlsx
+++ b/AudienceHub2.0/src/main/java/resources/externalData/credsData.xlsx
@@ -28,10 +28,10 @@
     <t xml:space="preserve">Account 1</t>
   </si>
   <si>
-    <t xml:space="preserve">shivam1.singh1@loblaw.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neelam@loblaw.ca</t>
+    <t xml:space="preserve">your_id@loblaw.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your_pass</t>
   </si>
   <si>
     <t xml:space="preserve">Account 2</t>
@@ -122,21 +122,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -156,13 +152,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.36"/>
@@ -177,40 +173,35 @@
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>9651112090</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="shivam1.singh1@loblaw.ca"/>
-    <hyperlink ref="C2" r:id="rId2" display="Neelam@loblaw.ca"/>
-    <hyperlink ref="C3" r:id="rId3" display="Loblaw@Testing"/>
+    <hyperlink ref="C3" r:id="rId1" display="Loblaw@Testing"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
